--- a/sict/day14/source/초급_실습_01_result.xlsx
+++ b/sict/day14/source/초급_실습_01_result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_sict\_RPA 교육\20xx.xx.xx 교육자료(신버전_2022.12.06)\02.교육내용\추가문제\재평가문제\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jun\learning-uipath\sict\day14\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B30AB52-ADD7-4779-BBAC-ED6300CFD4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B9D7F1-D1B1-42C7-902A-9D89505B558A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2D755C4B-3CCD-466E-9006-B20724E18759}"/>
+    <workbookView xWindow="7344" yWindow="1512" windowWidth="18300" windowHeight="9660" xr2:uid="{2D755C4B-3CCD-466E-9006-B20724E18759}"/>
   </bookViews>
   <sheets>
     <sheet name="reqult" sheetId="1" r:id="rId1"/>
@@ -198,25 +198,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -228,6 +216,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,65 +552,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37A766C-3710-4E08-B710-EEBC5FF58F46}">
-  <dimension ref="B2:J15"/>
+  <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="9" max="9" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.875" customWidth="1"/>
-    <col min="13" max="13" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="17.09765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.09765625" style="7" customWidth="1"/>
+    <col min="4" max="5" width="8.796875" style="7"/>
+    <col min="6" max="7" width="8.796875" style="10"/>
+    <col min="9" max="9" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.8984375" style="10" customWidth="1"/>
+    <col min="13" max="13" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="J1"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="I3" s="6" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="3">
         <v>44907</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="4">
@@ -610,118 +630,118 @@
       <c r="E4" s="4">
         <v>0.7</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="I5" s="6" t="s">
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="I5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="I6" s="6" t="s">
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="I6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="I7" s="6" t="s">
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="I7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="I8" s="6" t="s">
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="I8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="I9" s="6" t="s">
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="I9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="I10" s="6" t="s">
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="I10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I11" s="6" t="s">
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I12" s="6" t="s">
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I13" s="6" t="s">
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I14" s="6" t="s">
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I15" s="6" t="s">
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="5"/>
+      <c r="J15" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/sict/day14/source/초급_실습_01_result.xlsx
+++ b/sict/day14/source/초급_실습_01_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jun\learning-uipath\sict\day14\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B9D7F1-D1B1-42C7-902A-9D89505B558A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658101C0-664D-43CA-B496-FB2CE6CEB9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7344" yWindow="1512" windowWidth="18300" windowHeight="9660" xr2:uid="{2D755C4B-3CCD-466E-9006-B20724E18759}"/>
+    <workbookView xWindow="192" yWindow="384" windowWidth="18300" windowHeight="9660" xr2:uid="{2D755C4B-3CCD-466E-9006-B20724E18759}"/>
   </bookViews>
   <sheets>
     <sheet name="reqult" sheetId="1" r:id="rId1"/>
@@ -198,7 +198,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -214,29 +214,17 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,17 +543,16 @@
   <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J2" sqref="J2:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="17.09765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.09765625" style="7" customWidth="1"/>
-    <col min="4" max="5" width="8.796875" style="7"/>
-    <col min="6" max="7" width="8.796875" style="10"/>
+    <col min="2" max="2" width="17.09765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.09765625" style="6" customWidth="1"/>
+    <col min="4" max="7" width="8.796875" style="6"/>
     <col min="9" max="9" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.8984375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="17.8984375" style="6" customWidth="1"/>
     <col min="13" max="13" width="18.59765625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.19921875" customWidth="1"/>
   </cols>
@@ -580,42 +567,42 @@
       <c r="J1"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="8"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
       <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="8"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="3">
@@ -630,118 +617,118 @@
       <c r="E4" s="4">
         <v>0.7</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="12"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
       <c r="I5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="8"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
       <c r="I6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="8"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="I7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="12"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
       <c r="I8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="8"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
       <c r="I9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="8"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
       <c r="I10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="11"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="I11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="8"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="I12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="8"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="I13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="11"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="I14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="8"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="I15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="11"/>
+      <c r="J15" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
